--- a/orbitToolsDemo/GRAPH_OF_ISS.xlsx
+++ b/orbitToolsDemo/GRAPH_OF_ISS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\FYP_Satellite\orbitToolsDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>ACTUAL ALTITUDE OF ISS</t>
+    <t>MAGNITUDE OF ISS</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -128,7 +128,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,7 +186,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ISS ALTITUDE IN 93 MINS SCALE</a:t>
+              <a:t>MAGNITUDE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OF ISS </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IN 93 MINS SCALE</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -553,286 +561,286 @@
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="94"/>
                 <c:pt idx="0">
-                  <c:v>403.70296782750484</c:v>
+                  <c:v>396.56796782750462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>404.04538447904088</c:v>
+                  <c:v>396.91038447904066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>404.43786726558574</c:v>
+                  <c:v>397.30286726558552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>404.87805164145902</c:v>
+                  <c:v>397.74305164145881</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>405.36311456440944</c:v>
+                  <c:v>398.22811456440922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>405.8898025763101</c:v>
+                  <c:v>398.75480257630988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>406.45446599373645</c:v>
+                  <c:v>399.31946599373623</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>407.05309873169699</c:v>
+                  <c:v>399.91809873169677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>407.68138302917941</c:v>
+                  <c:v>400.5463830291792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>408.33473849868824</c:v>
+                  <c:v>401.19973849868802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>409.00837462620439</c:v>
+                  <c:v>401.87337462620417</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>409.69734595349746</c:v>
+                  <c:v>402.56234595349724</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>410.39660901132265</c:v>
+                  <c:v>403.26160901132243</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>411.10108011826287</c:v>
+                  <c:v>403.96608011826265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>411.80569320654922</c:v>
+                  <c:v>404.670693206549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>412.50545661357683</c:v>
+                  <c:v>405.37045661357661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>413.19550816088758</c:v>
+                  <c:v>406.06050816088737</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>413.87116756385785</c:v>
+                  <c:v>406.73616756385763</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>414.52798532862835</c:v>
+                  <c:v>407.39298532862813</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>415.16178762355048</c:v>
+                  <c:v>408.02678762355026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>415.76871622518229</c:v>
+                  <c:v>408.63371622518207</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>416.34526324292165</c:v>
+                  <c:v>409.21026324292143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>416.8882999593925</c:v>
+                  <c:v>409.75329995939228</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>417.39509957565133</c:v>
+                  <c:v>410.26009957565111</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>417.86335352599417</c:v>
+                  <c:v>410.72835352599395</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>418.29118133114025</c:v>
+                  <c:v>411.15618133114003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>418.67713384314175</c:v>
+                  <c:v>411.54213384314153</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>419.020190176293</c:v>
+                  <c:v>411.88519017629278</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>419.31974827258364</c:v>
+                  <c:v>412.18474827258342</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>419.57560964872573</c:v>
+                  <c:v>412.44060964872551</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>419.78795859074762</c:v>
+                  <c:v>412.6529585907474</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>419.95733632688916</c:v>
+                  <c:v>412.82233632688894</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>420.08461076525418</c:v>
+                  <c:v>412.94961076525396</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>420.17094245429143</c:v>
+                  <c:v>413.03594245429122</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>420.21774738297154</c:v>
+                  <c:v>413.08274738297132</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>420.22665752810644</c:v>
+                  <c:v>413.09165752810623</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>420.19947969216082</c:v>
+                  <c:v>413.0644796921606</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>420.1381536899662</c:v>
+                  <c:v>413.00315368996598</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>420.04471039826967</c:v>
+                  <c:v>412.90971039826945</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>419.92123067575358</c:v>
+                  <c:v>412.78623067575336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>419.76980586792979</c:v>
+                  <c:v>412.63480586792957</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>419.59250040738243</c:v>
+                  <c:v>412.45750040738221</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>419.39131749379976</c:v>
+                  <c:v>412.25631749379954</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>419.16816827241109</c:v>
+                  <c:v>412.03316827241088</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>418.92484493806205</c:v>
+                  <c:v>411.78984493806183</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>418.66299858978618</c:v>
+                  <c:v>411.52799858978597</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>418.38412169030562</c:v>
+                  <c:v>411.2491216903054</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>418.08953585949166</c:v>
+                  <c:v>410.95453585949144</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>417.78038480771465</c:v>
+                  <c:v>410.64538480771444</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>417.45763273220291</c:v>
+                  <c:v>410.32263273220269</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>417.12206791807512</c:v>
+                  <c:v>409.9870679180749</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>416.77431154543319</c:v>
+                  <c:v>409.63931154543297</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>416.41483133029124</c:v>
+                  <c:v>409.27983133029102</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>416.04395979832225</c:v>
+                  <c:v>408.90895979832203</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>415.66191656018145</c:v>
+                  <c:v>408.52691656018123</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>415.26883422568881</c:v>
+                  <c:v>408.13383422568859</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>414.86478729260034</c:v>
+                  <c:v>407.72978729260012</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>414.44982334300312</c:v>
+                  <c:v>407.3148233430029</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>414.02399581018017</c:v>
+                  <c:v>406.88899581017995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>413.587397748086</c:v>
+                  <c:v>406.45239774808579</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>413.14019549023487</c:v>
+                  <c:v>406.00519549023466</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>412.68266181402396</c:v>
+                  <c:v>405.54766181402374</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>412.21520749959109</c:v>
+                  <c:v>405.08020749959087</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>411.73841079636895</c:v>
+                  <c:v>404.60341079636873</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>411.25304382455397</c:v>
+                  <c:v>404.11804382455375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>410.76009549376886</c:v>
+                  <c:v>403.62509549376864</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>410.26079020785073</c:v>
+                  <c:v>403.12579020785051</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>409.75660173763481</c:v>
+                  <c:v>402.62160173763459</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>409.24926204720487</c:v>
+                  <c:v>402.11426204720465</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>408.74076455486374</c:v>
+                  <c:v>401.60576455486353</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>408.23336161568295</c:v>
+                  <c:v>401.09836161568273</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>407.72955620387074</c:v>
+                  <c:v>400.59455620387052</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>407.23208757832526</c:v>
+                  <c:v>400.09708757832504</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>406.74391125897728</c:v>
+                  <c:v>399.60891125897706</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>406.26817338381625</c:v>
+                  <c:v>399.13317338381603</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>405.80817982452027</c:v>
+                  <c:v>398.67317982452005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>405.3673604625892</c:v>
+                  <c:v>398.23236046258899</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>404.94922927475091</c:v>
+                  <c:v>397.81422927475069</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>404.55734066506557</c:v>
+                  <c:v>397.42234066506535</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>404.19524298089891</c:v>
+                  <c:v>397.06024298089869</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>403.86642979793123</c:v>
+                  <c:v>396.73142979793101</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>403.57428990286826</c:v>
+                  <c:v>396.43928990286804</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>403.3220568683646</c:v>
+                  <c:v>396.18705686836438</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>403.11275896248389</c:v>
+                  <c:v>395.97775896248368</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>402.94917050285221</c:v>
+                  <c:v>395.81417050285199</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>402.83376533001137</c:v>
+                  <c:v>395.69876533001116</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>402.76867343136928</c:v>
+                  <c:v>395.63367343136906</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>402.75564133682474</c:v>
+                  <c:v>395.62064133682452</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>402.79599719082034</c:v>
+                  <c:v>395.66099719082013</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>402.89062110942268</c:v>
+                  <c:v>395.75562110942246</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>403.03992137317164</c:v>
+                  <c:v>395.90492137317142</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>403.24381694790009</c:v>
+                  <c:v>396.10881694789987</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>403.50172676606144</c:v>
+                  <c:v>396.36672676606122</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>403.81256594253136</c:v>
+                  <c:v>396.67756594253115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,11 +871,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="428813800"/>
-        <c:axId val="428812232"/>
+        <c:axId val="196616344"/>
+        <c:axId val="196619872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="428813800"/>
+        <c:axId val="196616344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428812232"/>
+        <c:crossAx val="196619872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428812232"/>
+        <c:axId val="196619872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428813800"/>
+        <c:crossAx val="196616344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,7 +1203,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ISS ALTITUDE IN A 24 HOUR SCALE</a:t>
+              <a:t>MAGNITUDE OF ISS IN A 24 HOUR SCALE</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1266,7 +1274,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$100:$A$124</c:f>
+              <c:f>Sheet1!$A$101:$A$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1350,84 +1358,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$100:$F$124</c:f>
+              <c:f>Sheet1!$F$101:$F$125</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>403.70296782750484</c:v>
+                  <c:v>396.56796782750462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>413.14019549023487</c:v>
+                  <c:v>406.00519549023466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>419.14099823812558</c:v>
+                  <c:v>412.00599823812536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>402.74854072520066</c:v>
+                  <c:v>395.61354072520044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>415.38246532040921</c:v>
+                  <c:v>408.24746532040899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>416.95847281507122</c:v>
+                  <c:v>409.823472815071</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>403.24413924824421</c:v>
+                  <c:v>396.10913924824399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>417.32668875851959</c:v>
+                  <c:v>410.19168875851938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>413.78430360077982</c:v>
+                  <c:v>406.6493036007796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>404.92916071258514</c:v>
+                  <c:v>397.79416071258493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>418.91228221387519</c:v>
+                  <c:v>411.77728221387497</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>410.10666101260904</c:v>
+                  <c:v>402.97166101260882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>407.35100335926836</c:v>
+                  <c:v>400.21600335926814</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>419.97782102850942</c:v>
+                  <c:v>412.84282102850921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>406.60463999366402</c:v>
+                  <c:v>399.4696399936638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410.03993992191317</c:v>
+                  <c:v>402.90493992191296</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>420.26215401652462</c:v>
+                  <c:v>413.1271540165244</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>403.95956909023334</c:v>
+                  <c:v>396.82456909023313</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>412.64851833271132</c:v>
+                  <c:v>405.5135183327111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>419.49561776087648</c:v>
+                  <c:v>412.36061776087627</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>402.65378795652487</c:v>
+                  <c:v>395.51878795652465</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.99925278949377</c:v>
+                  <c:v>407.86425278949355</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>417.5425068194927</c:v>
+                  <c:v>410.40750681949248</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>402.83815605681593</c:v>
+                  <c:v>395.70315605681571</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>417.03372672545083</c:v>
+                  <c:v>409.89872672545062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,7 +1443,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1459,11 +1466,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="469353544"/>
-        <c:axId val="469356288"/>
+        <c:axId val="196616736"/>
+        <c:axId val="196617128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="469353544"/>
+        <c:axId val="196616736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469356288"/>
+        <c:crossAx val="196617128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="469356288"/>
+        <c:axId val="196617128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469353544"/>
+        <c:crossAx val="196616736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3243,10 +3250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3254,7 +3261,7 @@
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="3" width="14.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -3361,8 +3368,8 @@
         <v>6774.7029678275048</v>
       </c>
       <c r="F5" s="7">
-        <f>E5-6371</f>
-        <v>403.70296782750484</v>
+        <f>E5-6378.135</f>
+        <v>396.56796782750462</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -3383,8 +3390,8 @@
         <v>6775.0453844790409</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="F6:F69" si="0">E6-6371</f>
-        <v>404.04538447904088</v>
+        <f t="shared" ref="F6:F69" si="0">E6-6378.135</f>
+        <v>396.91038447904066</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -3406,7 +3413,7 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>404.43786726558574</v>
+        <v>397.30286726558552</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -3428,7 +3435,7 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>404.87805164145902</v>
+        <v>397.74305164145881</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -3450,7 +3457,7 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>405.36311456440944</v>
+        <v>398.22811456440922</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -3472,7 +3479,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>405.8898025763101</v>
+        <v>398.75480257630988</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -3494,7 +3501,7 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>406.45446599373645</v>
+        <v>399.31946599373623</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -3516,7 +3523,7 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>407.05309873169699</v>
+        <v>399.91809873169677</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -3538,7 +3545,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>407.68138302917941</v>
+        <v>400.5463830291792</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -3560,7 +3567,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>408.33473849868824</v>
+        <v>401.19973849868802</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -3582,7 +3589,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>409.00837462620439</v>
+        <v>401.87337462620417</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -3604,7 +3611,7 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>409.69734595349746</v>
+        <v>402.56234595349724</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -3626,7 +3633,7 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>410.39660901132265</v>
+        <v>403.26160901132243</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -3648,7 +3655,7 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>411.10108011826287</v>
+        <v>403.96608011826265</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -3670,7 +3677,7 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>411.80569320654922</v>
+        <v>404.670693206549</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -3692,7 +3699,7 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>412.50545661357683</v>
+        <v>405.37045661357661</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -3714,7 +3721,7 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>413.19550816088758</v>
+        <v>406.06050816088737</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -3736,7 +3743,7 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>413.87116756385785</v>
+        <v>406.73616756385763</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -3758,7 +3765,7 @@
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>414.52798532862835</v>
+        <v>407.39298532862813</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -3780,7 +3787,7 @@
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>415.16178762355048</v>
+        <v>408.02678762355026</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -3802,7 +3809,7 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>415.76871622518229</v>
+        <v>408.63371622518207</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -3824,7 +3831,7 @@
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>416.34526324292165</v>
+        <v>409.21026324292143</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -3846,7 +3853,7 @@
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>416.8882999593925</v>
+        <v>409.75329995939228</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -3868,7 +3875,7 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>417.39509957565133</v>
+        <v>410.26009957565111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -3890,7 +3897,7 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>417.86335352599417</v>
+        <v>410.72835352599395</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -3912,7 +3919,7 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>418.29118133114025</v>
+        <v>411.15618133114003</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -3934,7 +3941,7 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>418.67713384314175</v>
+        <v>411.54213384314153</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -3956,7 +3963,7 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>419.020190176293</v>
+        <v>411.88519017629278</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -3978,7 +3985,7 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>419.31974827258364</v>
+        <v>412.18474827258342</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4000,7 +4007,7 @@
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>419.57560964872573</v>
+        <v>412.44060964872551</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -4022,7 +4029,7 @@
       </c>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
-        <v>419.78795859074762</v>
+        <v>412.6529585907474</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -4044,7 +4051,7 @@
       </c>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>419.95733632688916</v>
+        <v>412.82233632688894</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -4066,7 +4073,7 @@
       </c>
       <c r="F37" s="7">
         <f t="shared" si="0"/>
-        <v>420.08461076525418</v>
+        <v>412.94961076525396</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -4088,7 +4095,7 @@
       </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
-        <v>420.17094245429143</v>
+        <v>413.03594245429122</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -4110,7 +4117,7 @@
       </c>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
-        <v>420.21774738297154</v>
+        <v>413.08274738297132</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -4132,7 +4139,7 @@
       </c>
       <c r="F40" s="7">
         <f t="shared" si="0"/>
-        <v>420.22665752810644</v>
+        <v>413.09165752810623</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4154,7 +4161,7 @@
       </c>
       <c r="F41" s="7">
         <f t="shared" si="0"/>
-        <v>420.19947969216082</v>
+        <v>413.0644796921606</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -4176,7 +4183,7 @@
       </c>
       <c r="F42" s="7">
         <f t="shared" si="0"/>
-        <v>420.1381536899662</v>
+        <v>413.00315368996598</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -4198,7 +4205,7 @@
       </c>
       <c r="F43" s="7">
         <f t="shared" si="0"/>
-        <v>420.04471039826967</v>
+        <v>412.90971039826945</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -4220,7 +4227,7 @@
       </c>
       <c r="F44" s="7">
         <f t="shared" si="0"/>
-        <v>419.92123067575358</v>
+        <v>412.78623067575336</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -4242,7 +4249,7 @@
       </c>
       <c r="F45" s="7">
         <f t="shared" si="0"/>
-        <v>419.76980586792979</v>
+        <v>412.63480586792957</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -4264,7 +4271,7 @@
       </c>
       <c r="F46" s="7">
         <f t="shared" si="0"/>
-        <v>419.59250040738243</v>
+        <v>412.45750040738221</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -4286,7 +4293,7 @@
       </c>
       <c r="F47" s="7">
         <f t="shared" si="0"/>
-        <v>419.39131749379976</v>
+        <v>412.25631749379954</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -4308,7 +4315,7 @@
       </c>
       <c r="F48" s="7">
         <f t="shared" si="0"/>
-        <v>419.16816827241109</v>
+        <v>412.03316827241088</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -4330,7 +4337,7 @@
       </c>
       <c r="F49" s="7">
         <f t="shared" si="0"/>
-        <v>418.92484493806205</v>
+        <v>411.78984493806183</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -4352,7 +4359,7 @@
       </c>
       <c r="F50" s="7">
         <f t="shared" si="0"/>
-        <v>418.66299858978618</v>
+        <v>411.52799858978597</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -4374,7 +4381,7 @@
       </c>
       <c r="F51" s="7">
         <f t="shared" si="0"/>
-        <v>418.38412169030562</v>
+        <v>411.2491216903054</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -4396,7 +4403,7 @@
       </c>
       <c r="F52" s="7">
         <f t="shared" si="0"/>
-        <v>418.08953585949166</v>
+        <v>410.95453585949144</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -4418,7 +4425,7 @@
       </c>
       <c r="F53" s="7">
         <f t="shared" si="0"/>
-        <v>417.78038480771465</v>
+        <v>410.64538480771444</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -4440,7 +4447,7 @@
       </c>
       <c r="F54" s="7">
         <f t="shared" si="0"/>
-        <v>417.45763273220291</v>
+        <v>410.32263273220269</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -4462,7 +4469,7 @@
       </c>
       <c r="F55" s="7">
         <f t="shared" si="0"/>
-        <v>417.12206791807512</v>
+        <v>409.9870679180749</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -4484,7 +4491,7 @@
       </c>
       <c r="F56" s="7">
         <f t="shared" si="0"/>
-        <v>416.77431154543319</v>
+        <v>409.63931154543297</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -4506,7 +4513,7 @@
       </c>
       <c r="F57" s="7">
         <f t="shared" si="0"/>
-        <v>416.41483133029124</v>
+        <v>409.27983133029102</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -4528,7 +4535,7 @@
       </c>
       <c r="F58" s="7">
         <f t="shared" si="0"/>
-        <v>416.04395979832225</v>
+        <v>408.90895979832203</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -4550,7 +4557,7 @@
       </c>
       <c r="F59" s="7">
         <f t="shared" si="0"/>
-        <v>415.66191656018145</v>
+        <v>408.52691656018123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -4572,7 +4579,7 @@
       </c>
       <c r="F60" s="7">
         <f t="shared" si="0"/>
-        <v>415.26883422568881</v>
+        <v>408.13383422568859</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -4594,7 +4601,7 @@
       </c>
       <c r="F61" s="7">
         <f t="shared" si="0"/>
-        <v>414.86478729260034</v>
+        <v>407.72978729260012</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -4616,7 +4623,7 @@
       </c>
       <c r="F62" s="7">
         <f t="shared" si="0"/>
-        <v>414.44982334300312</v>
+        <v>407.3148233430029</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -4638,7 +4645,7 @@
       </c>
       <c r="F63" s="7">
         <f t="shared" si="0"/>
-        <v>414.02399581018017</v>
+        <v>406.88899581017995</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -4660,7 +4667,7 @@
       </c>
       <c r="F64" s="7">
         <f t="shared" si="0"/>
-        <v>413.587397748086</v>
+        <v>406.45239774808579</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -4682,7 +4689,7 @@
       </c>
       <c r="F65" s="7">
         <f t="shared" si="0"/>
-        <v>413.14019549023487</v>
+        <v>406.00519549023466</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -4704,7 +4711,7 @@
       </c>
       <c r="F66" s="7">
         <f t="shared" si="0"/>
-        <v>412.68266181402396</v>
+        <v>405.54766181402374</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -4726,7 +4733,7 @@
       </c>
       <c r="F67" s="7">
         <f t="shared" si="0"/>
-        <v>412.21520749959109</v>
+        <v>405.08020749959087</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -4748,7 +4755,7 @@
       </c>
       <c r="F68" s="7">
         <f t="shared" si="0"/>
-        <v>411.73841079636895</v>
+        <v>404.60341079636873</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -4770,7 +4777,7 @@
       </c>
       <c r="F69" s="7">
         <f t="shared" si="0"/>
-        <v>411.25304382455397</v>
+        <v>404.11804382455375</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -4791,8 +4798,8 @@
         <v>6781.7600954937689</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" ref="F70:F124" si="2">E70-6371</f>
-        <v>410.76009549376886</v>
+        <f t="shared" ref="F70:F125" si="2">E70-6378.135</f>
+        <v>403.62509549376864</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -4809,12 +4816,12 @@
         <v>-1019.3477284099999</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" ref="E71:E124" si="3">SQRT((POWER(B71,2) + POWER(C71,2) + POWER(D71,2)))</f>
+        <f t="shared" ref="E71:E125" si="3">SQRT((POWER(B71,2) + POWER(C71,2) + POWER(D71,2)))</f>
         <v>6781.2607902078507</v>
       </c>
       <c r="F71" s="7">
         <f t="shared" si="2"/>
-        <v>410.26079020785073</v>
+        <v>403.12579020785051</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -4836,7 +4843,7 @@
       </c>
       <c r="F72" s="7">
         <f t="shared" si="2"/>
-        <v>409.75660173763481</v>
+        <v>402.62160173763459</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -4858,7 +4865,7 @@
       </c>
       <c r="F73" s="7">
         <f t="shared" si="2"/>
-        <v>409.24926204720487</v>
+        <v>402.11426204720465</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -4880,7 +4887,7 @@
       </c>
       <c r="F74" s="7">
         <f t="shared" si="2"/>
-        <v>408.74076455486374</v>
+        <v>401.60576455486353</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -4902,7 +4909,7 @@
       </c>
       <c r="F75" s="7">
         <f t="shared" si="2"/>
-        <v>408.23336161568295</v>
+        <v>401.09836161568273</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -4924,7 +4931,7 @@
       </c>
       <c r="F76" s="7">
         <f t="shared" si="2"/>
-        <v>407.72955620387074</v>
+        <v>400.59455620387052</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -4946,7 +4953,7 @@
       </c>
       <c r="F77" s="7">
         <f t="shared" si="2"/>
-        <v>407.23208757832526</v>
+        <v>400.09708757832504</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -4968,7 +4975,7 @@
       </c>
       <c r="F78" s="7">
         <f t="shared" si="2"/>
-        <v>406.74391125897728</v>
+        <v>399.60891125897706</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -4990,7 +4997,7 @@
       </c>
       <c r="F79" s="7">
         <f t="shared" si="2"/>
-        <v>406.26817338381625</v>
+        <v>399.13317338381603</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -5012,7 +5019,7 @@
       </c>
       <c r="F80" s="7">
         <f t="shared" si="2"/>
-        <v>405.80817982452027</v>
+        <v>398.67317982452005</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -5034,7 +5041,7 @@
       </c>
       <c r="F81" s="7">
         <f t="shared" si="2"/>
-        <v>405.3673604625892</v>
+        <v>398.23236046258899</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -5056,7 +5063,7 @@
       </c>
       <c r="F82" s="7">
         <f t="shared" si="2"/>
-        <v>404.94922927475091</v>
+        <v>397.81422927475069</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -5078,7 +5085,7 @@
       </c>
       <c r="F83" s="7">
         <f t="shared" si="2"/>
-        <v>404.55734066506557</v>
+        <v>397.42234066506535</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -5100,7 +5107,7 @@
       </c>
       <c r="F84" s="7">
         <f t="shared" si="2"/>
-        <v>404.19524298089891</v>
+        <v>397.06024298089869</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -5122,7 +5129,7 @@
       </c>
       <c r="F85" s="7">
         <f t="shared" si="2"/>
-        <v>403.86642979793123</v>
+        <v>396.73142979793101</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -5144,7 +5151,7 @@
       </c>
       <c r="F86" s="7">
         <f t="shared" si="2"/>
-        <v>403.57428990286826</v>
+        <v>396.43928990286804</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5166,7 +5173,7 @@
       </c>
       <c r="F87" s="7">
         <f t="shared" si="2"/>
-        <v>403.3220568683646</v>
+        <v>396.18705686836438</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -5188,7 +5195,7 @@
       </c>
       <c r="F88" s="7">
         <f t="shared" si="2"/>
-        <v>403.11275896248389</v>
+        <v>395.97775896248368</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -5210,7 +5217,7 @@
       </c>
       <c r="F89" s="7">
         <f t="shared" si="2"/>
-        <v>402.94917050285221</v>
+        <v>395.81417050285199</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -5232,7 +5239,7 @@
       </c>
       <c r="F90" s="7">
         <f t="shared" si="2"/>
-        <v>402.83376533001137</v>
+        <v>395.69876533001116</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -5254,7 +5261,7 @@
       </c>
       <c r="F91" s="7">
         <f t="shared" si="2"/>
-        <v>402.76867343136928</v>
+        <v>395.63367343136906</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -5276,7 +5283,7 @@
       </c>
       <c r="F92" s="7">
         <f t="shared" si="2"/>
-        <v>402.75564133682474</v>
+        <v>395.62064133682452</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -5298,7 +5305,7 @@
       </c>
       <c r="F93" s="7">
         <f t="shared" si="2"/>
-        <v>402.79599719082034</v>
+        <v>395.66099719082013</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -5320,7 +5327,7 @@
       </c>
       <c r="F94" s="7">
         <f t="shared" si="2"/>
-        <v>402.89062110942268</v>
+        <v>395.75562110942246</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -5342,7 +5349,7 @@
       </c>
       <c r="F95" s="7">
         <f t="shared" si="2"/>
-        <v>403.03992137317164</v>
+        <v>395.90492137317142</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -5364,7 +5371,7 @@
       </c>
       <c r="F96" s="7">
         <f t="shared" si="2"/>
-        <v>403.24381694790009</v>
+        <v>396.10881694789987</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -5386,7 +5393,7 @@
       </c>
       <c r="F97" s="7">
         <f t="shared" si="2"/>
-        <v>403.50172676606144</v>
+        <v>396.36672676606122</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -5408,7 +5415,7 @@
       </c>
       <c r="F98" s="7">
         <f t="shared" si="2"/>
-        <v>403.81256594253136</v>
+        <v>396.67756594253115</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -5419,561 +5426,561 @@
       <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
         <v>0</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B101" s="4">
         <v>4131.0406185399997</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C101" s="4">
         <v>-825.562264959</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D101" s="4">
         <v>5305.6150121299997</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E101" s="1">
         <f t="shared" si="3"/>
         <v>6774.7029678275048</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F101" s="7">
         <f t="shared" si="2"/>
-        <v>403.70296782750484</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+        <v>396.56796782750462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
         <v>1</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B102" s="4">
         <v>-3802.0284535999999</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C102" s="4">
         <v>-4748.2590801400002</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D102" s="4">
         <v>-3003.8597733500001</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E102" s="1">
         <f t="shared" si="3"/>
         <v>6784.1401954902349</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F102" s="7">
         <f t="shared" si="2"/>
-        <v>413.14019549023487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+        <v>406.00519549023466</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
         <v>2</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B103" s="4">
         <v>427.05704004199998</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C103" s="4">
         <v>6548.7546339199998</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D103" s="4">
         <v>-1742.8281054700001</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E103" s="1">
         <f t="shared" si="3"/>
         <v>6790.1409982381256</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F103" s="7">
         <f t="shared" si="2"/>
-        <v>419.14099823812558</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
+        <v>412.00599823812536</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
         <v>3</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B104" s="4">
         <v>3278.8787671300001</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C104" s="4">
         <v>-3088.9674824600002</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D104" s="4">
         <v>5058.7452214699997</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E104" s="1">
         <f t="shared" si="3"/>
         <v>6773.7485407252007</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F104" s="7">
         <f t="shared" si="2"/>
-        <v>402.74854072520066</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
+        <v>395.61354072520044</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
         <v>4</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B105" s="4">
         <v>-4399.2020418000002</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C105" s="4">
         <v>-2808.51987723</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D105" s="4">
         <v>-4337.5366811399999</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E105" s="1">
         <f t="shared" si="3"/>
         <v>6786.3824653204092</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F105" s="7">
         <f t="shared" si="2"/>
-        <v>415.38246532040921</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
+        <v>408.24746532040899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
         <v>5</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B106" s="4">
         <v>2004.5796728</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C106" s="4">
         <v>6484.4109511400002</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D106" s="4">
         <v>102.250578456</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E106" s="1">
         <f t="shared" si="3"/>
         <v>6787.9584728150712</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F106" s="7">
         <f t="shared" si="2"/>
-        <v>416.95847281507122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="2">
+        <v>409.823472815071</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
         <v>6</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B107" s="4">
         <v>1975.8922406700001</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C107" s="4">
         <v>-4946.8551527299996</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D107" s="4">
         <v>4185.0755798800001</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <f t="shared" si="3"/>
         <v>6774.2441392482442</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F107" s="7">
         <f t="shared" si="2"/>
-        <v>403.24413924824421</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
+        <v>396.10913924824399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
         <v>7</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B108" s="4">
         <v>-4408.4113877999998</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C108" s="4">
         <v>-516.85511094000003</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D108" s="4">
         <v>-5136.16092656</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E108" s="1">
         <f t="shared" si="3"/>
         <v>6788.3266887585196</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F108" s="7">
         <f t="shared" si="2"/>
-        <v>417.32668875851959</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
+        <v>410.19168875851938</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
         <v>8</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B109" s="4">
         <v>3324.4419889400001</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C109" s="4">
         <v>5589.1631022499996</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D109" s="4">
         <v>1934.59022147</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E109" s="1">
         <f t="shared" si="3"/>
         <v>6784.7843036007798</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F109" s="7">
         <f t="shared" si="2"/>
-        <v>413.78430360077982</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
+        <v>406.6493036007796</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
         <v>9</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B110" s="4">
         <v>394.455942806</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C110" s="4">
         <v>-6161.1747032200001</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D110" s="4">
         <v>2792.4087767699998</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E110" s="1">
         <f t="shared" si="3"/>
         <v>6775.9291607125851</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F110" s="7">
         <f t="shared" si="2"/>
-        <v>404.92916071258514</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
+        <v>397.79416071258493</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
         <v>10</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B111" s="4">
         <v>-3825.0624272</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C111" s="4">
         <v>1831.7382501</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D111" s="4">
         <v>-5302.5032966799999</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E111" s="1">
         <f t="shared" si="3"/>
         <v>6789.9122822138752</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F111" s="7">
         <f t="shared" si="2"/>
-        <v>418.91228221387519</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+        <v>411.77728221387497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
         <v>11</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B112" s="4">
         <v>4206.5559283599996</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C112" s="4">
         <v>3980.5377692100001</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D112" s="4">
         <v>3527.55068532</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E112" s="1">
         <f t="shared" si="3"/>
         <v>6781.106661012609</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F112" s="7">
         <f t="shared" si="2"/>
-        <v>410.10666101260904</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
+        <v>402.97166101260882</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
         <v>12</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B113" s="4">
         <v>-1253.93671268</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C113" s="4">
         <v>-6577.5637299099999</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D113" s="4">
         <v>1053.2523080000001</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E113" s="1">
         <f t="shared" si="3"/>
         <v>6778.3510033592684</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F113" s="7">
         <f t="shared" si="2"/>
-        <v>407.35100335926836</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+        <v>400.21600335926814</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
         <v>13</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B114" s="4">
         <v>-2723.2883993</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C114" s="4">
         <v>3936.98402588</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D114" s="4">
         <v>-4816.7662222600002</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E114" s="1">
         <f t="shared" si="3"/>
         <v>6790.9778210285094</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F114" s="7">
         <f t="shared" si="2"/>
-        <v>419.97782102850942</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+        <v>412.84282102850921</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
         <v>14</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B115" s="4">
         <v>4528.4917924399997</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C115" s="4">
         <v>1867.8328596199999</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D115" s="4">
         <v>4684.0033251900004</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E115" s="1">
         <f t="shared" si="3"/>
         <v>6777.604639993664</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F115" s="7">
         <f t="shared" si="2"/>
-        <v>406.60463999366402</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+        <v>399.4696399936638</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
         <v>15</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B116" s="4">
         <v>-2747.1034595699998</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C116" s="4">
         <v>-6145.6617552600001</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D116" s="4">
         <v>-816.55792150299999</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E116" s="1">
         <f t="shared" si="3"/>
         <v>6781.0399399219132</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F116" s="7">
         <f t="shared" si="2"/>
-        <v>410.03993992191317</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="2">
+        <v>402.90493992191296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
         <v>16</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B117" s="4">
         <v>-1246.49346438</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C117" s="4">
         <v>5530.8487732399999</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D117" s="4">
         <v>-3738.6103749099998</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E117" s="1">
         <f t="shared" si="3"/>
         <v>6791.2621540165246</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F117" s="7">
         <f t="shared" si="2"/>
-        <v>420.26215401652462</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="2">
+        <v>413.1271540165244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
         <v>17</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B118" s="4">
         <v>4242.3402009299998</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C118" s="4">
         <v>-475.45571876700001</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D118" s="4">
         <v>5260.8524634200003</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E118" s="1">
         <f t="shared" si="3"/>
         <v>6774.9595690902333</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F118" s="7">
         <f t="shared" si="2"/>
-        <v>403.95956909023334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="2">
+        <v>396.82456909023313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
         <v>18</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B119" s="4">
         <v>-3882.5681104199998</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C119" s="4">
         <v>-4925.5005707</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D119" s="4">
         <v>-2585.1491671200001</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E119" s="1">
         <f t="shared" si="3"/>
         <v>6783.6485183327113</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F119" s="7">
         <f t="shared" si="2"/>
-        <v>412.64851833271132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="2">
+        <v>405.5135183327111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
         <v>19</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B120" s="4">
         <v>410.79990395800002</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C120" s="4">
         <v>6411.0356232499998</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D120" s="4">
         <v>-2200.1582695699999</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E120" s="1">
         <f t="shared" si="3"/>
         <v>6790.4956177608765</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F120" s="7">
         <f t="shared" si="2"/>
-        <v>419.49561776087648</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="2">
+        <v>412.36061776087627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
         <v>20</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B121" s="4">
         <v>3381.4962585399999</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C121" s="4">
         <v>-2747.2067804500002</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D121" s="4">
         <v>5186.5907490400004</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E121" s="1">
         <f t="shared" si="3"/>
         <v>6773.6537879565249</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F121" s="7">
         <f t="shared" si="2"/>
-        <v>402.65378795652487</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+        <v>395.51878795652465</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
         <v>21</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B122" s="4">
         <v>-4505.3149158699998</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C122" s="4">
         <v>-3078.7497030300001</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D122" s="4">
         <v>-4034.0083829599998</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E122" s="1">
         <f t="shared" si="3"/>
         <v>6785.9992527894938</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F122" s="7">
         <f t="shared" si="2"/>
-        <v>414.99925278949377</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="2">
+        <v>407.86425278949355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
         <v>22</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B123" s="4">
         <v>2027.97997476</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C123" s="4">
         <v>6466.7732203300002</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D123" s="4">
         <v>-390.44936379799998</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E123" s="1">
         <f t="shared" si="3"/>
         <v>6788.5425068194927</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F123" s="7">
         <f t="shared" si="2"/>
-        <v>417.5425068194927</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="2">
+        <v>410.40750681949248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
         <v>23</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B124" s="4">
         <v>2056.7348865099998</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C124" s="4">
         <v>-4655.4787549399998</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D124" s="4">
         <v>4470.0383145300002</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E124" s="1">
         <f t="shared" si="3"/>
         <v>6773.8381560568159</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F124" s="7">
         <f t="shared" si="2"/>
-        <v>402.83815605681593</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="2">
+        <v>395.70315605681571</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
         <v>24</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B125" s="4">
         <v>-4528.6823506299997</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C125" s="4">
         <v>-846.36180262899995</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D125" s="4">
         <v>-4985.1890376700003</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E125" s="1">
         <f t="shared" si="3"/>
         <v>6788.0337267254508</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F125" s="7">
         <f t="shared" si="2"/>
-        <v>417.03372672545083</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="7"/>
+        <v>409.89872672545062</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B126" s="4"/>
@@ -5982,6 +5989,13 @@
       <c r="E126" s="1"/>
       <c r="F126" s="7"/>
     </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
